--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T08:45:48+00:00</t>
+    <t>2024-11-07T14:16:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:16:08+00:00</t>
+    <t>2024-11-08T08:40:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T08:40:42+00:00</t>
+    <t>2024-11-08T08:54:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T08:54:23+00:00</t>
+    <t>2024-11-08T09:01:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:01:27+00:00</t>
+    <t>2024-11-08T09:05:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T09:05:34+00:00</t>
+    <t>2024-11-12T14:25:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T14:25:24+00:00</t>
+    <t>2024-11-12T14:52:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T14:52:59+00:00</t>
+    <t>2024-11-12T15:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T15:14:01+00:00</t>
+    <t>2024-11-12T15:16:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T15:16:21+00:00</t>
+    <t>2024-11-12T17:11:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-12T17:11:42+00:00</t>
+    <t>2024-11-13T09:32:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T09:32:25+00:00</t>
+    <t>2024-11-14T08:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:59:28+00:00</t>
+    <t>2024-11-14T09:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:49:21+00:00</t>
+    <t>2024-11-14T09:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T09:55:00+00:00</t>
+    <t>2024-11-14T10:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T10:00:34+00:00</t>
+    <t>2024-11-14T10:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T10:47:40+00:00</t>
+    <t>2024-11-14T14:34:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/CodeSystem-type-carte-code-system.xlsx
+++ b/main/ig/CodeSystem-type-carte-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T14:34:20+00:00</t>
+    <t>2024-11-14T18:02:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
